--- a/docs/主角技能.xlsx
+++ b/docs/主角技能.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\德鲁伊的奇幻冒险\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\02_GitHubProjects\LeftEye\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B259A97-8C53-491C-A594-2CD0B59853EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{7A0F0DC0-00CA-4F4D-A23B-7577F1E78FC9}"/>
+    <workbookView xWindow="1920" yWindow="-120" windowWidth="28110" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -75,9 +74,6 @@
     <t>厚皮（加耐力加30%减伤）</t>
   </si>
   <si>
-    <t>乌索克旋风（在锁定的目标周围释放，将周围怪集中起来持续一段时间）</t>
-  </si>
-  <si>
     <t>急奔（片刻增加100%移速）</t>
   </si>
   <si>
@@ -289,13 +285,17 @@
   </si>
   <si>
     <t>本体变成石像，嘲讽周围怪物5秒，同时召唤两个分身，分身可以点击变形按钮切换，长按变形按钮退出该形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌索克旋风（朝前方释放风暴，在碰到的第一个目标周围爆发，将周围怪集中起来持续一段时间）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -707,32 +707,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF9B4E1-153A-4E24-B30A-ABFEA8F72D32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="6" max="6" width="22.58203125" customWidth="1"/>
     <col min="7" max="7" width="22.25" customWidth="1"/>
-    <col min="8" max="8" width="22.875" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" customWidth="1"/>
     <col min="9" max="10" width="22.5" customWidth="1"/>
-    <col min="11" max="11" width="18.625" customWidth="1"/>
+    <col min="11" max="11" width="18.58203125" customWidth="1"/>
     <col min="12" max="12" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33.75" thickBot="1">
+    <row r="1" spans="1:12" ht="33.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,19 +755,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="74.25" customHeight="1" thickBot="1">
@@ -778,7 +778,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -789,7 +789,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -801,7 +801,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -814,128 +814,128 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="78.75" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="84" customHeight="1" thickBot="1">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="68.25" customHeight="1" thickBot="1">
       <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="91.5" customHeight="1" thickBot="1">
       <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -943,24 +943,24 @@
     </row>
     <row r="8" spans="1:12" ht="83.25" customHeight="1" thickBot="1">
       <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -969,13 +969,13 @@
     </row>
     <row r="9" spans="1:12" ht="83.25" customHeight="1" thickBot="1">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -987,18 +987,18 @@
     </row>
     <row r="10" spans="1:12" ht="51.75" customHeight="1" thickBot="1">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1007,21 +1007,21 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="43.5" thickBot="1">
+    <row r="11" spans="1:12" ht="42.5" thickBot="1">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1031,17 +1031,17 @@
     </row>
     <row r="12" spans="1:12" ht="59.25" customHeight="1" thickBot="1">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1051,16 +1051,16 @@
     </row>
     <row r="13" spans="1:12" ht="59.25" customHeight="1" thickBot="1">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
